--- a/invoice march.xlsx
+++ b/invoice march.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minte\OneDrive\Documents\Maharishi MSD - Feb 2021\CS301\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663470C4-C5BC-43B3-8F90-05A458991016}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4606100-CE64-4DC6-8FDA-F29D6D2AC5C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{5DE23128-1582-45A7-8FAB-6A92B5B38709}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="March 2 -5" sheetId="1" r:id="rId1"/>
+    <sheet name="March 6-12" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -476,7 +476,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -557,7 +557,7 @@
         <v>44258</v>
       </c>
       <c r="B10">
-        <v>1.5</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -565,13 +565,16 @@
         <v>44259</v>
       </c>
       <c r="B11">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3">
         <v>44260</v>
       </c>
+      <c r="B12">
+        <v>3.75</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3"/>
@@ -582,7 +585,7 @@
       </c>
       <c r="B16">
         <f>SUM(B9:B14)</f>
-        <v>8.5</v>
+        <v>15.2</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
@@ -605,7 +608,7 @@
       </c>
       <c r="B18" s="1">
         <f>B16*B17</f>
-        <v>85</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="26.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -635,7 +638,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView zoomScale="107" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
